--- a/BackTest/2019-10-19 BackTest TRX.xlsx
+++ b/BackTest/2019-10-19 BackTest TRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>18.23000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>18.25000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
       <c r="L14" t="n">
         <v>18.26000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>18.26000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>49.99999999999956</v>
+      </c>
       <c r="L16" t="n">
         <v>18.28000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>49.99999999999956</v>
+      </c>
       <c r="L17" t="n">
         <v>18.30000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333254</v>
+      </c>
       <c r="L18" t="n">
         <v>18.32000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333254</v>
+      </c>
       <c r="L19" t="n">
         <v>18.33000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>49.99999999999956</v>
+      </c>
       <c r="L20" t="n">
         <v>18.35000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>18.35000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>18.35000000000002</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.9999999999999964</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333307</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L23" t="n">
         <v>18.36000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>0.9999999999999964</v>
       </c>
       <c r="K24" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>18.37000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>0.9999999999999964</v>
       </c>
       <c r="K25" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>18.39000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>0.9999999999999964</v>
       </c>
       <c r="K26" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>18.39000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>0.9999999999999964</v>
       </c>
       <c r="K27" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>18.39000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L28" t="n">
         <v>18.40000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>18.41000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L30" t="n">
         <v>18.40000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L31" t="n">
         <v>18.41000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L32" t="n">
         <v>18.41000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L33" t="n">
         <v>18.40000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L34" t="n">
         <v>18.39000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11111111111129</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L35" t="n">
         <v>18.38000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L36" t="n">
         <v>18.37000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L37" t="n">
         <v>18.36000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>1.399999999999995</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L38" t="n">
         <v>18.35000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>1.499999999999993</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>18.33000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>1.499999999999993</v>
       </c>
       <c r="K40" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>18.32000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K43" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L43" t="n">
         <v>18.30000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>18.30000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>18.30000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>18.30000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K47" t="n">
-        <v>-24.99999999999989</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L47" t="n">
         <v>18.29000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>-42.857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>18.27000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K49" t="n">
-        <v>-42.857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>18.26000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>18.24000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>18.24000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>18.23</v>
@@ -3033,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>18.22</v>
@@ -3084,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>18.21</v>
@@ -3135,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>18.21</v>
@@ -3186,7 +3208,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>18.22</v>
@@ -3237,7 +3259,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>18.23</v>
@@ -3288,7 +3310,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>18.24000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>18.24000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>18.24000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>18.24000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>18.24000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>18.24000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>18.23</v>
@@ -3747,7 +3769,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>18.22</v>
@@ -3798,7 +3820,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L70" t="n">
         <v>18.21</v>
@@ -3848,9 +3870,7 @@
       <c r="J71" t="n">
         <v>2.200000000000003</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>18.2</v>
       </c>
@@ -3899,9 +3919,7 @@
       <c r="J72" t="n">
         <v>2.200000000000003</v>
       </c>
-      <c r="K72" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>18.2</v>
       </c>
@@ -3950,9 +3968,7 @@
       <c r="J73" t="n">
         <v>2.200000000000003</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>18.2</v>
       </c>
@@ -4001,9 +4017,7 @@
       <c r="J74" t="n">
         <v>2.200000000000003</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>18.2</v>
       </c>
@@ -4053,7 +4067,7 @@
         <v>2.300000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>18.19</v>
@@ -4104,7 +4118,7 @@
         <v>2.300000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>18.18</v>
@@ -4206,7 +4220,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>18.18</v>
@@ -4257,7 +4271,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>18.18</v>
@@ -4308,7 +4322,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>18.18</v>
@@ -4359,7 +4373,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>18.18</v>
@@ -4512,7 +4526,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>18.15</v>
@@ -4563,7 +4577,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>18.15</v>
@@ -4614,7 +4628,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>18.15</v>
@@ -4767,7 +4781,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K89" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>18.14</v>
@@ -4818,7 +4832,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>18.13</v>
@@ -4869,7 +4883,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K91" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>18.12</v>
@@ -4920,7 +4934,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K92" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>18.12</v>
@@ -4971,7 +4985,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K93" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>18.12</v>
@@ -5022,7 +5036,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K94" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>18.12</v>
@@ -5073,7 +5087,7 @@
         <v>2.79999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>18.13</v>
@@ -5124,7 +5138,7 @@
         <v>2.899999999999988</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>18.13</v>
@@ -5226,7 +5240,7 @@
         <v>2.999999999999986</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>18.13</v>
@@ -5277,7 +5291,7 @@
         <v>3.099999999999984</v>
       </c>
       <c r="K99" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>18.13</v>
@@ -5328,7 +5342,7 @@
         <v>3.099999999999984</v>
       </c>
       <c r="K100" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>18.13</v>
@@ -5379,7 +5393,7 @@
         <v>3.199999999999985</v>
       </c>
       <c r="K101" t="n">
-        <v>-25.00000000000033</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L101" t="n">
         <v>18.12</v>
@@ -5430,7 +5444,7 @@
         <v>3.199999999999985</v>
       </c>
       <c r="K102" t="n">
-        <v>-14.28571428571472</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L102" t="n">
         <v>18.11</v>
@@ -5481,7 +5495,7 @@
         <v>3.199999999999985</v>
       </c>
       <c r="K103" t="n">
-        <v>-14.28571428571472</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L103" t="n">
         <v>18.1</v>
@@ -5532,7 +5546,7 @@
         <v>3.199999999999985</v>
       </c>
       <c r="K104" t="n">
-        <v>-14.28571428571472</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L104" t="n">
         <v>18.09</v>
@@ -5634,7 +5648,7 @@
         <v>3.399999999999988</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.11111111111137</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L106" t="n">
         <v>18.07</v>
@@ -5685,7 +5699,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K107" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L107" t="n">
         <v>18.06000000000001</v>
@@ -5736,7 +5750,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>18.05</v>
@@ -5838,7 +5852,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>18.05</v>
@@ -5889,7 +5903,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>18.06000000000001</v>
@@ -5940,7 +5954,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>18.07</v>
@@ -5991,7 +6005,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>18.08000000000001</v>
@@ -6093,7 +6107,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.285714285714</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
         <v>18.09</v>
@@ -6143,9 +6157,7 @@
       <c r="J116" t="n">
         <v>3.499999999999989</v>
       </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>18.1</v>
       </c>
@@ -6194,9 +6206,7 @@
       <c r="J117" t="n">
         <v>3.499999999999989</v>
       </c>
-      <c r="K117" t="n">
-        <v>-19.99999999999943</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>18.1</v>
       </c>
@@ -6245,9 +6255,7 @@
       <c r="J118" t="n">
         <v>3.499999999999989</v>
       </c>
-      <c r="K118" t="n">
-        <v>-19.99999999999943</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>18.1</v>
       </c>
@@ -6297,7 +6305,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K119" t="n">
-        <v>19.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>18.11</v>
@@ -6348,7 +6356,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K120" t="n">
-        <v>19.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>18.12</v>
@@ -6399,7 +6407,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K121" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
         <v>18.13</v>
@@ -6450,7 +6458,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K122" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>18.14</v>
@@ -6501,7 +6509,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K123" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
         <v>18.15</v>
@@ -6552,7 +6560,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K124" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>18.16</v>
@@ -6603,7 +6611,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>18.17</v>
@@ -6755,9 +6763,7 @@
       <c r="J128" t="n">
         <v>3.599999999999987</v>
       </c>
-      <c r="K128" t="n">
-        <v>100</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>18.2</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>33.33333333333254</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>18.23</v>
@@ -7011,7 +7017,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>33.33333333333254</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>18.23</v>
@@ -7062,7 +7068,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K134" t="n">
-        <v>49.99999999999956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>18.24000000000001</v>
@@ -7113,7 +7119,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K135" t="n">
-        <v>49.99999999999956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>18.25000000000001</v>
@@ -7164,7 +7170,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K136" t="n">
-        <v>49.99999999999956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>18.26000000000001</v>
@@ -7215,7 +7221,7 @@
         <v>3.999999999999993</v>
       </c>
       <c r="K137" t="n">
-        <v>19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>18.26000000000001</v>
@@ -7266,7 +7272,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K138" t="n">
-        <v>33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>18.27000000000001</v>
@@ -7317,7 +7323,7 @@
         <v>4.199999999999996</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>18.26000000000001</v>
@@ -7368,7 +7374,7 @@
         <v>4.199999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L140" t="n">
         <v>18.25000000000001</v>
@@ -7419,7 +7425,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K141" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>18.25000000000001</v>
@@ -7470,7 +7476,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K142" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>18.26000000000001</v>
@@ -7521,7 +7527,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>18.27000000000001</v>
@@ -7572,7 +7578,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>18.27000000000001</v>
@@ -7623,7 +7629,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>18.27000000000001</v>
@@ -7674,7 +7680,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K146" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>18.27000000000001</v>
@@ -7725,7 +7731,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K147" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>18.28000000000002</v>
@@ -7776,7 +7782,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>18.28000000000002</v>
@@ -7827,7 +7833,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>18.29000000000002</v>
@@ -7877,9 +7883,7 @@
       <c r="J150" t="n">
         <v>4.299999999999997</v>
       </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>18.30000000000002</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K151" t="n">
-        <v>14.28571428571385</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>18.31000000000002</v>
@@ -7980,7 +7984,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K152" t="n">
-        <v>33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>18.32000000000002</v>
@@ -8031,7 +8035,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K153" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>18.32000000000002</v>
@@ -8082,7 +8086,7 @@
         <v>4.599999999999991</v>
       </c>
       <c r="K154" t="n">
-        <v>14.285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>18.33000000000002</v>
@@ -8133,7 +8137,7 @@
         <v>4.79999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-11.11111111111129</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L155" t="n">
         <v>18.32000000000001</v>
@@ -8235,7 +8239,7 @@
         <v>4.999999999999993</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L157" t="n">
         <v>18.31000000000001</v>
@@ -8337,7 +8341,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L159" t="n">
         <v>18.30000000000001</v>
@@ -8388,7 +8392,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>9.090909090909207</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L160" t="n">
         <v>18.30000000000001</v>
@@ -8439,7 +8443,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L161" t="n">
         <v>18.29000000000001</v>
@@ -8490,7 +8494,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K162" t="n">
-        <v>9.090909090908914</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L162" t="n">
         <v>18.29000000000001</v>
@@ -8541,7 +8545,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K163" t="n">
-        <v>9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>18.30000000000001</v>
@@ -8592,7 +8596,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K164" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L164" t="n">
         <v>18.30000000000001</v>
@@ -8643,7 +8647,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K165" t="n">
-        <v>9.090909090908914</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L165" t="n">
         <v>18.32000000000001</v>
@@ -8694,7 +8698,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K166" t="n">
-        <v>16.66666666666662</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L166" t="n">
         <v>18.34000000000001</v>
@@ -8745,7 +8749,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>7.692307692307525</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L167" t="n">
         <v>18.36000000000001</v>
@@ -8796,7 +8800,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>7.692307692307525</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L168" t="n">
         <v>18.37000000000001</v>
@@ -8847,7 +8851,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>7.692307692307525</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L169" t="n">
         <v>18.39000000000001</v>
@@ -8898,7 +8902,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>7.692307692307525</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L170" t="n">
         <v>18.40000000000001</v>
@@ -8949,7 +8953,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>18.42000000000001</v>
@@ -9051,7 +9055,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>18.42000000000001</v>
@@ -9102,7 +9106,7 @@
         <v>5.900000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>7.692307692307734</v>
+        <v>20</v>
       </c>
       <c r="L174" t="n">
         <v>18.43000000000001</v>
@@ -9153,7 +9157,7 @@
         <v>5.900000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>27.27272727272704</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>18.44000000000001</v>
@@ -9204,7 +9208,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K176" t="n">
-        <v>9.090909090908797</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>18.43000000000001</v>
@@ -9255,7 +9259,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K177" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>18.43000000000001</v>
@@ -9306,7 +9310,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K178" t="n">
-        <v>11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>18.43000000000001</v>
@@ -9357,7 +9361,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K179" t="n">
-        <v>24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>18.43000000000001</v>
@@ -9408,7 +9412,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571385</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>18.43000000000001</v>
@@ -9459,7 +9463,7 @@
         <v>6.100000000000005</v>
       </c>
       <c r="K181" t="n">
-        <v>24.99999999999967</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>18.43000000000001</v>
@@ -9561,7 +9565,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.11111111111076</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L183" t="n">
         <v>18.42000000000001</v>
@@ -9612,7 +9616,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K184" t="n">
-        <v>-11.11111111111076</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L184" t="n">
         <v>18.40000000000001</v>
@@ -9714,7 +9718,7 @@
         <v>6.5</v>
       </c>
       <c r="K186" t="n">
-        <v>-19.99999999999986</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L186" t="n">
         <v>18.38000000000002</v>
@@ -9765,7 +9769,7 @@
         <v>6.5</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.11111111111085</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L187" t="n">
         <v>18.37000000000002</v>
@@ -9867,7 +9871,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K189" t="n">
-        <v>-9.090909090908914</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L189" t="n">
         <v>18.36000000000002</v>
@@ -9918,7 +9922,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>-9.090909090908914</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L190" t="n">
         <v>18.35000000000002</v>
@@ -10020,7 +10024,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>18.32000000000002</v>
@@ -10071,7 +10075,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K193" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>18.32000000000002</v>
@@ -10122,7 +10126,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K194" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>18.32000000000002</v>
@@ -10173,7 +10177,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K195" t="n">
-        <v>-25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>18.31000000000002</v>
@@ -10224,7 +10228,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>18.31000000000002</v>
@@ -10275,7 +10279,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K197" t="n">
-        <v>-14.28571428571414</v>
+        <v>-100</v>
       </c>
       <c r="L197" t="n">
         <v>18.31000000000002</v>
@@ -10325,9 +10329,7 @@
       <c r="J198" t="n">
         <v>6.699999999999996</v>
       </c>
-      <c r="K198" t="n">
-        <v>-14.28571428571414</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>18.30000000000002</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>-25.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>18.29000000000002</v>
@@ -10428,7 +10430,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>18.29000000000002</v>
@@ -10479,7 +10481,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>-25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>18.29000000000002</v>
@@ -10530,7 +10532,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L202" t="n">
         <v>18.30000000000002</v>
@@ -10581,7 +10583,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L203" t="n">
         <v>18.31000000000002</v>
@@ -10683,7 +10685,7 @@
         <v>7.099999999999994</v>
       </c>
       <c r="K205" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>18.31000000000002</v>
@@ -10734,7 +10736,7 @@
         <v>7.199999999999992</v>
       </c>
       <c r="K206" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L206" t="n">
         <v>18.32000000000001</v>
@@ -10785,7 +10787,7 @@
         <v>7.199999999999992</v>
       </c>
       <c r="K207" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L207" t="n">
         <v>18.33000000000002</v>
@@ -10836,7 +10838,7 @@
         <v>7.199999999999992</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L208" t="n">
         <v>18.34000000000001</v>
@@ -10887,7 +10889,7 @@
         <v>7.199999999999992</v>
       </c>
       <c r="K209" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>18.36000000000002</v>
@@ -10938,7 +10940,7 @@
         <v>7.199999999999992</v>
       </c>
       <c r="K210" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>18.37000000000002</v>
@@ -10989,7 +10991,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>18.37000000000002</v>
@@ -11040,7 +11042,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>18.36000000000002</v>
@@ -11091,7 +11093,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K213" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>18.36000000000002</v>
@@ -11142,7 +11144,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K214" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>18.37000000000002</v>
@@ -11193,7 +11195,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K215" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>18.38000000000002</v>
@@ -11244,7 +11246,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K216" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>18.38000000000002</v>
@@ -11295,7 +11297,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K217" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>18.38000000000002</v>
@@ -11346,7 +11348,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K218" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>18.38000000000002</v>
@@ -11397,7 +11399,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K219" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>18.38000000000002</v>
@@ -11448,7 +11450,7 @@
         <v>7.399999999999988</v>
       </c>
       <c r="K220" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>18.38000000000002</v>
@@ -11550,7 +11552,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K222" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L222" t="n">
         <v>18.38000000000002</v>
@@ -11601,7 +11603,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K223" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L223" t="n">
         <v>18.37000000000002</v>
@@ -11652,7 +11654,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>18.36000000000002</v>
@@ -11703,7 +11705,7 @@
         <v>7.599999999999984</v>
       </c>
       <c r="K225" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>18.36000000000002</v>
@@ -11856,7 +11858,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K228" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>18.35000000000002</v>
@@ -11907,7 +11909,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K229" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L229" t="n">
         <v>18.34000000000002</v>
@@ -11958,7 +11960,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K230" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>18.33000000000002</v>
@@ -12111,7 +12113,7 @@
         <v>7.799999999999979</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>18.34000000000002</v>
@@ -12315,7 +12317,7 @@
         <v>7.799999999999979</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L237" t="n">
         <v>18.35000000000002</v>
@@ -12366,7 +12368,7 @@
         <v>7.799999999999979</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L238" t="n">
         <v>18.36000000000002</v>
@@ -12417,7 +12419,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K239" t="n">
-        <v>20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>18.38000000000002</v>
@@ -12468,7 +12470,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K240" t="n">
-        <v>20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>18.40000000000001</v>
@@ -12519,7 +12521,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K241" t="n">
-        <v>50.00000000000044</v>
+        <v>100</v>
       </c>
       <c r="L241" t="n">
         <v>18.42000000000001</v>
@@ -12570,7 +12572,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K242" t="n">
-        <v>50.00000000000044</v>
+        <v>100</v>
       </c>
       <c r="L242" t="n">
         <v>18.44000000000001</v>
@@ -12621,7 +12623,7 @@
         <v>7.999999999999982</v>
       </c>
       <c r="K243" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>18.44000000000001</v>
@@ -12774,7 +12776,7 @@
         <v>8.299999999999986</v>
       </c>
       <c r="K246" t="n">
-        <v>14.28571428571443</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>18.46000000000001</v>
@@ -12876,7 +12878,7 @@
         <v>8.499999999999989</v>
       </c>
       <c r="K248" t="n">
-        <v>24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>18.47000000000001</v>
@@ -12927,7 +12929,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K249" t="n">
-        <v>11.11111111111076</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>18.46000000000001</v>
@@ -12978,7 +12980,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K250" t="n">
-        <v>11.11111111111076</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>18.45000000000001</v>
@@ -13029,7 +13031,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K251" t="n">
-        <v>11.11111111111076</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L251" t="n">
         <v>18.44000000000001</v>
@@ -13080,7 +13082,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K252" t="n">
-        <v>11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>18.43000000000001</v>
@@ -13131,7 +13133,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L253" t="n">
         <v>18.43000000000001</v>
@@ -13182,7 +13184,7 @@
         <v>8.699999999999992</v>
       </c>
       <c r="K254" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L254" t="n">
         <v>18.43000000000001</v>
@@ -13233,7 +13235,7 @@
         <v>8.799999999999994</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L255" t="n">
         <v>18.43000000000001</v>
@@ -13335,7 +13337,7 @@
         <v>8.799999999999994</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>18.42000000000001</v>
@@ -13386,7 +13388,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K258" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>18.42000000000001</v>
@@ -13437,7 +13439,7 @@
         <v>8.999999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>18.42000000000001</v>
@@ -13488,7 +13490,7 @@
         <v>9.099999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L260" t="n">
         <v>18.43000000000001</v>
@@ -13539,7 +13541,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>18.43000000000001</v>
@@ -13590,7 +13592,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>18.43000000000001</v>
@@ -13641,7 +13643,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L263" t="n">
         <v>18.43000000000001</v>
@@ -13692,7 +13694,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>18.42000000000001</v>
@@ -13743,7 +13745,7 @@
         <v>9.299999999999997</v>
       </c>
       <c r="K265" t="n">
-        <v>-9.090909090908797</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L265" t="n">
         <v>18.41000000000001</v>
@@ -13794,7 +13796,7 @@
         <v>9.399999999999995</v>
       </c>
       <c r="K266" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>18.41000000000001</v>
@@ -13845,7 +13847,7 @@
         <v>9.399999999999995</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L267" t="n">
         <v>18.41000000000001</v>
@@ -13896,7 +13898,7 @@
         <v>9.399999999999995</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>18.40000000000001</v>
@@ -13947,7 +13949,7 @@
         <v>9.399999999999995</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L269" t="n">
         <v>18.40000000000001</v>
@@ -14049,7 +14051,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K271" t="n">
-        <v>11.1111111111112</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L271" t="n">
         <v>18.40000000000001</v>
@@ -14100,7 +14102,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K272" t="n">
-        <v>11.1111111111112</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L272" t="n">
         <v>18.41000000000001</v>
@@ -14151,7 +14153,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K273" t="n">
-        <v>11.1111111111112</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L273" t="n">
         <v>18.42000000000001</v>
@@ -14202,7 +14204,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L274" t="n">
         <v>18.43000000000001</v>
@@ -14253,7 +14255,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571443</v>
+        <v>100</v>
       </c>
       <c r="L275" t="n">
         <v>18.45000000000001</v>
@@ -14304,7 +14306,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K276" t="n">
-        <v>14.28571428571443</v>
+        <v>100</v>
       </c>
       <c r="L276" t="n">
         <v>18.46000000000001</v>
@@ -14355,7 +14357,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K277" t="n">
-        <v>14.28571428571443</v>
+        <v>100</v>
       </c>
       <c r="L277" t="n">
         <v>18.47000000000001</v>
@@ -14406,7 +14408,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L278" t="n">
         <v>18.48000000000001</v>
@@ -14457,7 +14459,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K279" t="n">
-        <v>20.00000000000028</v>
+        <v>100</v>
       </c>
       <c r="L279" t="n">
         <v>18.49000000000001</v>
@@ -14507,9 +14509,7 @@
       <c r="J280" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K280" t="n">
-        <v>0</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -14558,9 +14558,7 @@
       <c r="J281" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K281" t="n">
-        <v>33.33333333333412</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -14609,9 +14607,7 @@
       <c r="J282" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K282" t="n">
-        <v>33.33333333333412</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -14660,9 +14656,7 @@
       <c r="J283" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K283" t="n">
-        <v>33.33333333333412</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -14711,9 +14705,7 @@
       <c r="J284" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K284" t="n">
-        <v>33.33333333333412</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -14762,9 +14754,7 @@
       <c r="J285" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K285" t="n">
-        <v>100</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -14813,9 +14803,7 @@
       <c r="J286" t="n">
         <v>9.499999999999996</v>
       </c>
-      <c r="K286" t="n">
-        <v>100</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -15018,7 +15006,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>18.53000000000001</v>
@@ -15324,7 +15312,7 @@
         <v>10.1</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L296" t="n">
         <v>18.56000000000001</v>
@@ -15375,7 +15363,7 @@
         <v>10.1</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L297" t="n">
         <v>18.55</v>
@@ -15426,7 +15414,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>18.55</v>
@@ -15528,7 +15516,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>18.55</v>
@@ -15630,7 +15618,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L302" t="n">
         <v>18.54000000000001</v>
@@ -15681,7 +15669,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L303" t="n">
         <v>18.53000000000001</v>
@@ -15834,7 +15822,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L306" t="n">
         <v>18.53000000000001</v>
@@ -15936,7 +15924,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>18.54000000000001</v>
@@ -16038,7 +16026,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L310" t="n">
         <v>18.55</v>
@@ -16089,7 +16077,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L311" t="n">
         <v>18.56000000000001</v>
@@ -16140,7 +16128,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L312" t="n">
         <v>18.57</v>
@@ -16191,7 +16179,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L313" t="n">
         <v>18.58000000000001</v>
@@ -16242,7 +16230,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L314" t="n">
         <v>18.59</v>
@@ -16292,9 +16280,7 @@
       <c r="J315" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K315" t="n">
-        <v>20</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>18.6</v>
       </c>
@@ -16343,9 +16329,7 @@
       <c r="J316" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K316" t="n">
-        <v>20</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>18.6</v>
       </c>
@@ -16394,9 +16378,7 @@
       <c r="J317" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K317" t="n">
-        <v>20</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>18.6</v>
       </c>
@@ -16445,9 +16427,7 @@
       <c r="J318" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K318" t="n">
-        <v>0</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>18.6</v>
       </c>
@@ -16496,9 +16476,7 @@
       <c r="J319" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K319" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>18.6</v>
       </c>
@@ -16547,9 +16525,7 @@
       <c r="J320" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K320" t="n">
-        <v>0</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>18.6</v>
       </c>
@@ -16598,9 +16574,7 @@
       <c r="J321" t="n">
         <v>10.60000000000001</v>
       </c>
-      <c r="K321" t="n">
-        <v>100</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>18.6</v>
       </c>
@@ -16650,7 +16624,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L322" t="n">
         <v>18.59</v>
@@ -16701,7 +16675,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L323" t="n">
         <v>18.58000000000001</v>
@@ -16752,7 +16726,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L324" t="n">
         <v>18.57</v>
@@ -16803,7 +16777,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>18.57</v>
@@ -17109,7 +17083,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K331" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>18.51000000000001</v>
@@ -17160,7 +17134,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>18.51000000000001</v>
@@ -17211,7 +17185,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>18.50000000000001</v>
@@ -17262,7 +17236,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>18.50000000000001</v>
@@ -17313,7 +17287,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K335" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>18.49000000000001</v>
@@ -17364,7 +17338,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K336" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>18.49000000000001</v>
@@ -17415,7 +17389,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K337" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>18.49000000000001</v>
@@ -17517,7 +17491,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K339" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>18.48000000000001</v>
@@ -17568,7 +17542,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K340" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L340" t="n">
         <v>18.47000000000001</v>
@@ -17619,7 +17593,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K341" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L341" t="n">
         <v>18.46000000000001</v>
@@ -17670,7 +17644,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L342" t="n">
         <v>18.46000000000001</v>
@@ -17721,7 +17695,7 @@
         <v>11.60000000000003</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L343" t="n">
         <v>18.46000000000001</v>
@@ -17772,7 +17746,7 @@
         <v>11.60000000000003</v>
       </c>
       <c r="K344" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L344" t="n">
         <v>18.45000000000001</v>
@@ -17823,7 +17797,7 @@
         <v>11.60000000000003</v>
       </c>
       <c r="K345" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L345" t="n">
         <v>18.44000000000001</v>
@@ -17874,7 +17848,7 @@
         <v>11.60000000000003</v>
       </c>
       <c r="K346" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L346" t="n">
         <v>18.43000000000001</v>
@@ -17925,7 +17899,7 @@
         <v>11.60000000000003</v>
       </c>
       <c r="K347" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>18.42000000000001</v>
@@ -18027,7 +18001,7 @@
         <v>11.70000000000003</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>18.43000000000001</v>
@@ -18078,7 +18052,7 @@
         <v>11.80000000000003</v>
       </c>
       <c r="K350" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>18.43000000000001</v>
@@ -18129,7 +18103,7 @@
         <v>11.80000000000003</v>
       </c>
       <c r="K351" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L351" t="n">
         <v>18.43000000000001</v>
@@ -18180,7 +18154,7 @@
         <v>11.90000000000003</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L352" t="n">
         <v>18.43000000000001</v>
@@ -18282,7 +18256,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L354" t="n">
         <v>18.44000000000001</v>
@@ -18333,7 +18307,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L355" t="n">
         <v>18.45000000000001</v>
@@ -18384,7 +18358,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L356" t="n">
         <v>18.46000000000001</v>
@@ -18486,7 +18460,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K358" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>18.47000000000001</v>
@@ -18537,7 +18511,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>18.47000000000001</v>
@@ -18588,7 +18562,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K360" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>18.48000000000001</v>
@@ -18639,7 +18613,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K361" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>18.49000000000001</v>
@@ -18690,7 +18664,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L362" t="n">
         <v>18.49000000000001</v>
@@ -18740,9 +18714,7 @@
       <c r="J363" t="n">
         <v>12.10000000000003</v>
       </c>
-      <c r="K363" t="n">
-        <v>20</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -18791,9 +18763,7 @@
       <c r="J364" t="n">
         <v>12.10000000000003</v>
       </c>
-      <c r="K364" t="n">
-        <v>20</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -18842,9 +18812,7 @@
       <c r="J365" t="n">
         <v>12.10000000000003</v>
       </c>
-      <c r="K365" t="n">
-        <v>20</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>18.50000000000001</v>
       </c>
@@ -18894,7 +18862,7 @@
         <v>12.20000000000003</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>18.49000000000001</v>
@@ -18945,7 +18913,7 @@
         <v>12.20000000000003</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L367" t="n">
         <v>18.48000000000001</v>
@@ -18996,7 +18964,7 @@
         <v>12.20000000000003</v>
       </c>
       <c r="K368" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L368" t="n">
         <v>18.47000000000001</v>
@@ -19098,7 +19066,7 @@
         <v>12.30000000000004</v>
       </c>
       <c r="K370" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>18.47000000000001</v>
@@ -19149,7 +19117,7 @@
         <v>12.30000000000004</v>
       </c>
       <c r="K371" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>18.47000000000001</v>
@@ -19200,7 +19168,7 @@
         <v>12.40000000000004</v>
       </c>
       <c r="K372" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>18.46000000000001</v>
@@ -19251,7 +19219,7 @@
         <v>12.40000000000004</v>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L373" t="n">
         <v>18.45000000000001</v>
@@ -19353,7 +19321,7 @@
         <v>12.40000000000004</v>
       </c>
       <c r="K375" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>18.43000000000001</v>
@@ -19404,7 +19372,7 @@
         <v>12.50000000000004</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>18.44000000000001</v>
@@ -19455,7 +19423,7 @@
         <v>12.50000000000004</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>18.45000000000001</v>
@@ -19506,7 +19474,7 @@
         <v>12.60000000000004</v>
       </c>
       <c r="K378" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>18.45000000000001</v>
@@ -19659,7 +19627,7 @@
         <v>12.70000000000004</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L381" t="n">
         <v>18.45000000000001</v>
@@ -19710,7 +19678,7 @@
         <v>12.70000000000004</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L382" t="n">
         <v>18.46000000000001</v>
@@ -19761,7 +19729,7 @@
         <v>12.70000000000004</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>18.47000000000001</v>
@@ -19812,7 +19780,7 @@
         <v>12.70000000000004</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>18.48000000000001</v>
@@ -19914,7 +19882,7 @@
         <v>12.70000000000004</v>
       </c>
       <c r="K386" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>18.49000000000001</v>
@@ -19965,7 +19933,7 @@
         <v>12.80000000000004</v>
       </c>
       <c r="K387" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L387" t="n">
         <v>18.50000000000001</v>
@@ -20016,7 +19984,7 @@
         <v>12.90000000000004</v>
       </c>
       <c r="K388" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>18.51000000000001</v>
@@ -20067,7 +20035,7 @@
         <v>13.00000000000005</v>
       </c>
       <c r="K389" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>18.52000000000001</v>
@@ -20169,7 +20137,7 @@
         <v>13.20000000000005</v>
       </c>
       <c r="K391" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L391" t="n">
         <v>18.53000000000001</v>
@@ -20220,7 +20188,7 @@
         <v>13.20000000000005</v>
       </c>
       <c r="K392" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L392" t="n">
         <v>18.54000000000001</v>
@@ -20271,7 +20239,7 @@
         <v>13.30000000000005</v>
       </c>
       <c r="K393" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>18.54000000000001</v>
@@ -20322,7 +20290,7 @@
         <v>13.30000000000005</v>
       </c>
       <c r="K394" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>18.54000000000001</v>
@@ -20373,7 +20341,7 @@
         <v>13.30000000000005</v>
       </c>
       <c r="K395" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>18.54000000000001</v>
@@ -20424,7 +20392,7 @@
         <v>13.40000000000005</v>
       </c>
       <c r="K396" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>18.53000000000001</v>
@@ -20475,7 +20443,7 @@
         <v>13.50000000000005</v>
       </c>
       <c r="K397" t="n">
-        <v>-19.99999999999972</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L397" t="n">
         <v>18.50000000000001</v>
@@ -20526,7 +20494,7 @@
         <v>13.50000000000005</v>
       </c>
       <c r="K398" t="n">
-        <v>-11.11111111111076</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L398" t="n">
         <v>18.48000000000001</v>
@@ -20577,7 +20545,7 @@
         <v>13.50000000000005</v>
       </c>
       <c r="K399" t="n">
-        <v>-24.99999999999967</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L399" t="n">
         <v>18.45000000000001</v>
@@ -20628,7 +20596,7 @@
         <v>13.50000000000005</v>
       </c>
       <c r="K400" t="n">
-        <v>-24.99999999999967</v>
+        <v>-100</v>
       </c>
       <c r="L400" t="n">
         <v>18.43000000000001</v>
@@ -20679,7 +20647,7 @@
         <v>13.50000000000005</v>
       </c>
       <c r="K401" t="n">
-        <v>-24.99999999999967</v>
+        <v>-100</v>
       </c>
       <c r="L401" t="n">
         <v>18.40000000000001</v>
@@ -20730,7 +20698,7 @@
         <v>13.60000000000005</v>
       </c>
       <c r="K402" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L402" t="n">
         <v>18.38000000000002</v>
@@ -20781,7 +20749,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K403" t="n">
-        <v>-19.99999999999986</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L403" t="n">
         <v>18.36000000000002</v>
@@ -20832,7 +20800,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K404" t="n">
-        <v>-19.99999999999986</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L404" t="n">
         <v>18.34000000000002</v>
@@ -20883,7 +20851,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K405" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>18.32000000000002</v>
@@ -20934,7 +20902,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K406" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>18.31000000000002</v>
@@ -20985,7 +20953,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K407" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>18.31000000000002</v>
@@ -21036,7 +21004,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K408" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>18.32000000000002</v>
@@ -21087,7 +21055,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K409" t="n">
-        <v>-25.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L409" t="n">
         <v>18.33000000000002</v>
@@ -21138,7 +21106,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K410" t="n">
-        <v>-14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>18.34000000000002</v>
@@ -21189,7 +21157,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K411" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>18.35000000000002</v>
@@ -21240,7 +21208,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K412" t="n">
-        <v>-33.33333333333412</v>
+        <v>100</v>
       </c>
       <c r="L412" t="n">
         <v>18.35000000000002</v>
@@ -21291,7 +21259,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K413" t="n">
-        <v>-20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L413" t="n">
         <v>18.36000000000002</v>
@@ -21342,7 +21310,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K414" t="n">
-        <v>-20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L414" t="n">
         <v>18.37000000000002</v>
@@ -21393,7 +21361,7 @@
         <v>13.90000000000004</v>
       </c>
       <c r="K415" t="n">
-        <v>-33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>18.37000000000002</v>
@@ -21444,7 +21412,7 @@
         <v>13.90000000000004</v>
       </c>
       <c r="K416" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>18.37000000000002</v>
@@ -21495,7 +21463,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K417" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L417" t="n">
         <v>18.38000000000002</v>
@@ -21546,7 +21514,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K418" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>18.38000000000002</v>
@@ -21597,7 +21565,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K419" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>18.38000000000002</v>
@@ -21648,7 +21616,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K420" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>18.38000000000002</v>
@@ -21699,7 +21667,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K421" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>18.38000000000002</v>
@@ -21750,7 +21718,7 @@
         <v>14.10000000000004</v>
       </c>
       <c r="K422" t="n">
-        <v>20.00000000000057</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L422" t="n">
         <v>18.39000000000001</v>
@@ -21801,7 +21769,7 @@
         <v>14.10000000000004</v>
       </c>
       <c r="K423" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L423" t="n">
         <v>18.40000000000001</v>
@@ -21852,7 +21820,7 @@
         <v>14.20000000000004</v>
       </c>
       <c r="K424" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L424" t="n">
         <v>18.40000000000001</v>
@@ -21903,7 +21871,7 @@
         <v>14.30000000000004</v>
       </c>
       <c r="K425" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L425" t="n">
         <v>18.42000000000001</v>
@@ -22005,7 +21973,7 @@
         <v>14.40000000000004</v>
       </c>
       <c r="K427" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="L427" t="n">
         <v>18.46000000000001</v>
@@ -22056,7 +22024,7 @@
         <v>14.40000000000004</v>
       </c>
       <c r="K428" t="n">
-        <v>33.33333333333373</v>
+        <v>50</v>
       </c>
       <c r="L428" t="n">
         <v>18.48000000000001</v>
@@ -22107,7 +22075,7 @@
         <v>14.40000000000004</v>
       </c>
       <c r="K429" t="n">
-        <v>33.33333333333373</v>
+        <v>50</v>
       </c>
       <c r="L429" t="n">
         <v>18.50000000000001</v>
@@ -22158,7 +22126,7 @@
         <v>14.40000000000004</v>
       </c>
       <c r="K430" t="n">
-        <v>33.33333333333373</v>
+        <v>50</v>
       </c>
       <c r="L430" t="n">
         <v>18.52000000000001</v>
@@ -22209,7 +22177,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K431" t="n">
-        <v>42.857142857143</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L431" t="n">
         <v>18.55</v>
@@ -22260,7 +22228,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K432" t="n">
-        <v>25.00000000000044</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L432" t="n">
         <v>18.56000000000001</v>
@@ -22311,7 +22279,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K433" t="n">
-        <v>25.00000000000044</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L433" t="n">
         <v>18.57</v>
@@ -22362,7 +22330,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K434" t="n">
-        <v>25.00000000000044</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L434" t="n">
         <v>18.59</v>
@@ -22413,7 +22381,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K435" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L435" t="n">
         <v>18.6</v>
@@ -22464,7 +22432,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K436" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>18.61</v>
@@ -22515,7 +22483,7 @@
         <v>14.70000000000004</v>
       </c>
       <c r="K437" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>18.62</v>
@@ -22566,7 +22534,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K438" t="n">
-        <v>25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>18.62</v>
@@ -22617,7 +22585,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K439" t="n">
-        <v>25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>18.62</v>
@@ -22668,7 +22636,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K440" t="n">
-        <v>25.00000000000044</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>18.62</v>
@@ -22719,7 +22687,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K441" t="n">
-        <v>25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>18.61</v>
@@ -22770,7 +22738,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K442" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>18.61</v>
@@ -22821,7 +22789,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K443" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>18.61</v>
@@ -22872,7 +22840,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K444" t="n">
-        <v>42.85714285714344</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L444" t="n">
         <v>18.62</v>
@@ -22923,7 +22891,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K445" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>18.63</v>
@@ -22974,7 +22942,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K446" t="n">
-        <v>14.28571428571472</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>18.63</v>
@@ -23127,7 +23095,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K449" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L449" t="n">
         <v>18.63</v>
@@ -23178,7 +23146,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K450" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L450" t="n">
         <v>18.64</v>
@@ -23229,7 +23197,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K451" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>18.64</v>
@@ -23331,7 +23299,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K453" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L453" t="n">
         <v>18.64</v>
@@ -23382,7 +23350,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K454" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>18.63</v>
@@ -23433,7 +23401,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K455" t="n">
-        <v>-14.28571428571472</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L455" t="n">
         <v>18.61</v>
@@ -23484,7 +23452,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K456" t="n">
-        <v>-14.28571428571472</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L456" t="n">
         <v>18.6</v>
@@ -23535,7 +23503,7 @@
         <v>15.40000000000003</v>
       </c>
       <c r="K457" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>18.6</v>
@@ -23586,7 +23554,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K458" t="n">
-        <v>-14.28571428571458</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L458" t="n">
         <v>18.59</v>
@@ -23637,7 +23605,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K459" t="n">
-        <v>-14.28571428571458</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L459" t="n">
         <v>18.57</v>
@@ -23688,7 +23656,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K460" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L460" t="n">
         <v>18.57</v>
@@ -23841,7 +23809,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K463" t="n">
-        <v>-9.090909090909268</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L463" t="n">
         <v>18.56000000000001</v>
@@ -23892,7 +23860,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K464" t="n">
-        <v>-9.090909090908914</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L464" t="n">
         <v>18.56000000000001</v>
@@ -23943,7 +23911,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K465" t="n">
-        <v>-9.090909090908914</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L465" t="n">
         <v>18.57</v>
@@ -24045,7 +24013,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L467" t="n">
         <v>18.58000000000001</v>
@@ -24096,7 +24064,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L468" t="n">
         <v>18.59</v>
@@ -24147,7 +24115,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K469" t="n">
-        <v>-11.11111111111085</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L469" t="n">
         <v>18.6</v>
@@ -24198,7 +24166,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K470" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>18.59</v>
@@ -24249,7 +24217,7 @@
         <v>16.10000000000003</v>
       </c>
       <c r="K471" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L471" t="n">
         <v>18.58000000000001</v>
@@ -24300,7 +24268,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>18.58000000000001</v>
@@ -24453,7 +24421,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K475" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L475" t="n">
         <v>18.6</v>

--- a/BackTest/2019-10-19 BackTest TRX.xlsx
+++ b/BackTest/2019-10-19 BackTest TRX.xlsx
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3601,17 +3601,13 @@
         <v>18.21333333333331</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K92" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3640,22 +3636,14 @@
         <v>18.20999999999998</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3683,22 +3671,14 @@
         <v>18.20666666666664</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3726,17 +3706,13 @@
         <v>18.20499999999998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
@@ -3765,22 +3741,14 @@
         <v>18.20166666666664</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K96" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3814,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3849,17 +3811,13 @@
         <v>18.19666666666664</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K98" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
@@ -3894,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3935,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4005,17 +3951,13 @@
         <v>18.17999999999997</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>18</v>
-      </c>
-      <c r="K102" t="n">
-        <v>18</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4044,22 +3986,14 @@
         <v>18.17666666666664</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>18</v>
-      </c>
-      <c r="K103" t="n">
-        <v>18</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4087,22 +4021,14 @@
         <v>18.17166666666664</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>18</v>
-      </c>
-      <c r="K104" t="n">
-        <v>18</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4130,17 +4056,13 @@
         <v>18.16833333333331</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K105" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
@@ -4175,16 +4097,12 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="K106" t="n">
         <v>18.1</v>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4218,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="K107" t="n">
         <v>18.1</v>
@@ -4266,7 +4184,11 @@
       <c r="K108" t="n">
         <v>18.1</v>
       </c>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4305,11 +4227,7 @@
       <c r="K109" t="n">
         <v>18.1</v>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4337,14 +4255,12 @@
         <v>18.15666666666663</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>18.1</v>
       </c>
@@ -4391,7 +4307,11 @@
       <c r="K111" t="n">
         <v>18.1</v>
       </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4425,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="K112" t="n">
         <v>18.1</v>
@@ -4468,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="K113" t="n">
         <v>18.1</v>
@@ -4505,14 +4425,12 @@
         <v>18.14833333333329</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
         <v>18.1</v>
       </c>
@@ -4548,14 +4466,12 @@
         <v>18.14666666666663</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
         <v>18.1</v>
       </c>
@@ -4591,14 +4507,12 @@
         <v>18.14499999999996</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
         <v>18.1</v>
       </c>
@@ -4634,14 +4548,12 @@
         <v>18.14333333333328</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
         <v>18.1</v>
       </c>
@@ -4677,14 +4589,12 @@
         <v>18.13999999999995</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>18.1</v>
       </c>
@@ -4720,14 +4630,12 @@
         <v>18.13833333333329</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
         <v>18.1</v>
       </c>
@@ -4763,14 +4671,12 @@
         <v>18.13666666666662</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>18.1</v>
       </c>
@@ -4806,14 +4712,12 @@
         <v>18.13499999999996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>18.1</v>
       </c>
@@ -4849,14 +4753,12 @@
         <v>18.13499999999996</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>18.1</v>
       </c>
@@ -4892,14 +4794,12 @@
         <v>18.13499999999996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>18.1</v>
       </c>
@@ -5389,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
@@ -5397,11 +5297,11 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>1.006049723756906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5430,11 +5330,17 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +5371,17 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5412,17 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5453,17 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5570,11 +5494,17 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5608,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5643,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5678,8 +5620,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5661,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5748,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5783,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5853,8 +5825,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5888,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5923,8 +5907,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5958,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5993,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6028,8 +6030,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +6068,17 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6098,8 +6112,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +6150,17 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6168,8 +6194,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6203,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6238,8 +6276,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6273,8 +6317,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6308,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6343,8 +6399,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6378,8 +6440,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6413,8 +6481,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6448,8 +6522,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6483,8 +6563,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6518,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6642,17 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6585,11 +6683,17 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6623,8 +6727,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6768,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6693,8 +6809,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6728,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6763,8 +6891,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6798,8 +6932,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6833,8 +6973,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6865,11 +7011,17 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6903,8 +7055,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6938,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7137,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7008,8 +7178,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7043,8 +7219,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7078,8 +7260,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7113,8 +7301,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7148,8 +7342,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7183,8 +7383,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7218,8 +7424,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7253,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +7506,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7323,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7358,8 +7588,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7393,8 +7629,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7428,8 +7670,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7463,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7498,8 +7752,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7533,8 +7793,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7568,8 +7834,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7603,8 +7875,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7638,8 +7916,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7673,8 +7957,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7708,8 +7998,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7743,8 +8039,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7778,8 +8080,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8121,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7848,8 +8162,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7883,8 +8203,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7918,8 +8244,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7953,8 +8285,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7988,8 +8326,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8023,8 +8367,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8058,8 +8408,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8093,8 +8449,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8128,8 +8490,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8163,8 +8531,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8198,8 +8572,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8233,8 +8613,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8268,8 +8654,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8303,8 +8695,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8338,8 +8736,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8373,8 +8777,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8408,8 +8818,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8443,8 +8859,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8478,8 +8900,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8513,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8548,8 +8982,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8583,8 +9023,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8618,8 +9064,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8653,8 +9105,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8688,8 +9146,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8723,8 +9187,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8758,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8793,8 +9269,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8828,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8863,8 +9351,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8898,8 +9392,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8933,8 +9433,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9474,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9003,8 +9515,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9038,8 +9556,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9073,8 +9597,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9108,8 +9638,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +9679,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9178,8 +9720,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9213,8 +9761,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9248,8 +9802,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9283,8 +9843,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9318,8 +9884,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9353,8 +9925,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9388,8 +9966,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9423,8 +10007,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9458,8 +10048,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9493,8 +10089,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9528,8 +10130,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9563,8 +10171,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10212,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9633,8 +10253,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9668,8 +10294,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9703,8 +10335,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9738,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9773,8 +10417,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9808,8 +10458,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9843,8 +10499,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9878,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9913,8 +10581,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9948,8 +10622,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9983,8 +10663,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10018,8 +10704,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10053,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10088,8 +10786,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10158,8 +10868,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10193,8 +10909,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10228,8 +10950,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10263,8 +10991,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +11032,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +11073,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10368,8 +11114,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10403,8 +11155,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10438,8 +11196,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10473,8 +11237,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10508,8 +11278,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10543,8 +11319,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10578,8 +11360,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10613,8 +11401,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10648,8 +11442,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10683,8 +11483,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10718,8 +11524,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +11565,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10788,8 +11606,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10823,8 +11647,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10858,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10893,8 +11729,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10928,8 +11770,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10963,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10998,8 +11852,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11033,8 +11893,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11068,8 +11934,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11103,8 +11975,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11138,8 +12016,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11173,8 +12057,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11208,8 +12098,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11243,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12180,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11313,8 +12221,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11348,8 +12262,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11383,8 +12303,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11418,8 +12344,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +12385,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11488,8 +12426,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11523,8 +12467,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11558,8 +12508,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11593,8 +12549,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11628,8 +12590,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11663,8 +12631,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11698,8 +12672,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11733,8 +12713,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11768,8 +12754,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11803,8 +12795,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11838,8 +12836,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11873,8 +12877,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11908,8 +12918,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11943,8 +12959,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11978,8 +13000,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12013,8 +13041,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12048,8 +13082,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12083,8 +13123,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12118,8 +13164,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12153,8 +13205,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12188,8 +13246,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12223,8 +13287,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12258,8 +13328,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12293,8 +13369,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12328,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12363,8 +13451,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12398,8 +13492,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +13533,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12468,8 +13574,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12503,8 +13615,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12538,8 +13656,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12573,8 +13697,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12608,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12643,8 +13779,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12678,8 +13820,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12713,8 +13861,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12748,8 +13902,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12783,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12818,8 +13984,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12853,8 +14025,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12888,8 +14066,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12923,8 +14107,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12958,8 +14148,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12993,8 +14189,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13028,8 +14230,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13063,8 +14271,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13098,8 +14312,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13133,8 +14353,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13168,8 +14394,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13203,8 +14435,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13238,8 +14476,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13273,8 +14517,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13308,8 +14558,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13343,8 +14599,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13378,8 +14640,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13413,8 +14681,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13448,8 +14722,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13483,8 +14763,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13518,8 +14804,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13553,8 +14845,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +14886,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13623,8 +14927,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13658,8 +14968,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13693,8 +15009,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13728,8 +15050,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +15091,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13798,8 +15132,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13833,8 +15173,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13868,8 +15214,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13903,8 +15255,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13938,8 +15296,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13973,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14008,8 +15378,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14043,8 +15419,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14078,8 +15460,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14113,8 +15501,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14148,8 +15542,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14183,8 +15583,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14218,8 +15624,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14253,8 +15665,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14288,8 +15706,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14323,8 +15747,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14358,8 +15788,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14393,8 +15829,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14428,8 +15870,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14463,8 +15911,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14498,8 +15952,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14533,8 +15993,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14568,8 +16034,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14603,8 +16075,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14638,8 +16116,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +16157,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14708,8 +16198,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14743,8 +16239,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14778,8 +16280,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14813,8 +16321,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14848,8 +16362,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14883,8 +16403,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +16444,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14953,8 +16485,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14988,8 +16526,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15023,8 +16567,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15058,8 +16608,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15093,8 +16649,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15128,8 +16690,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15163,8 +16731,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15198,8 +16772,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15233,8 +16813,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15268,8 +16854,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15303,8 +16895,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15338,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15373,8 +16977,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15408,8 +17018,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15443,8 +17059,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15478,8 +17100,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15513,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15548,8 +17182,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15583,8 +17223,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15618,8 +17264,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15653,8 +17305,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15688,8 +17346,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15723,8 +17387,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15758,8 +17428,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15793,8 +17469,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +17510,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15863,8 +17551,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15898,8 +17592,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15933,8 +17633,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15968,8 +17674,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16003,8 +17715,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16038,8 +17756,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16073,8 +17797,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16108,8 +17838,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16143,8 +17879,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16178,8 +17920,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16213,8 +17961,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16248,8 +18002,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16283,8 +18043,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16318,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16353,8 +18125,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16388,8 +18166,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16423,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16458,8 +18248,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16493,8 +18289,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16528,8 +18330,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16563,8 +18371,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest TRX.xlsx
+++ b/BackTest/2019-10-19 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>17.9</v>
@@ -521,9 +521,11 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J4" t="n">
         <v>17.9</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J5" t="n">
         <v>17.9</v>
       </c>
@@ -764,14 +768,10 @@
         <v>482454.09945249</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -801,19 +801,11 @@
         <v>482454.09945249</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -845,14 +837,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -4610,7 +4596,7 @@
         <v>3852735.607732761</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4643,7 +4629,7 @@
         <v>3852735.607732761</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4676,7 +4662,7 @@
         <v>3852735.607732761</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4775,7 +4761,7 @@
         <v>3852735.607732761</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4874,7 +4860,7 @@
         <v>3563590.800732761</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4907,7 +4893,7 @@
         <v>3568090.800732761</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4940,7 +4926,7 @@
         <v>3568090.800732761</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5270,7 +5256,7 @@
         <v>3598564.869732761</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5798,7 +5784,7 @@
         <v>3549532.536532761</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -8207,7 +8193,7 @@
         <v>6227386.198001331</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8240,7 +8226,7 @@
         <v>6227386.198001331</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -10550,7 +10536,7 @@
         <v>7374174.437510251</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10715,7 +10701,7 @@
         <v>7374103.063610251</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10748,7 +10734,7 @@
         <v>7374113.063610251</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10847,7 +10833,7 @@
         <v>7242731.458510251</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10880,7 +10866,7 @@
         <v>7244792.759510251</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10913,7 +10899,7 @@
         <v>7244632.59741025</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10946,7 +10932,7 @@
         <v>7244732.59741025</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10979,7 +10965,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11012,7 +10998,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11045,7 +11031,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11078,7 +11064,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11111,7 +11097,7 @@
         <v>7081237.79701025</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11144,7 +11130,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11177,7 +11163,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11210,7 +11196,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11243,7 +11229,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11276,7 +11262,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11309,7 +11295,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11705,7 +11691,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11771,7 +11757,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11804,7 +11790,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11837,7 +11823,7 @@
         <v>7100164.79677111</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11870,7 +11856,7 @@
         <v>7100164.79677111</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11903,7 +11889,7 @@
         <v>7100164.79677111</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11936,7 +11922,7 @@
         <v>7079533.41777111</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11969,7 +11955,7 @@
         <v>7079693.41777111</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12002,7 +11988,7 @@
         <v>7007704.33517111</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12035,7 +12021,7 @@
         <v>7007714.33517111</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12068,7 +12054,7 @@
         <v>7007714.33517111</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12101,7 +12087,7 @@
         <v>6992859.4503152</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12134,7 +12120,7 @@
         <v>6992859.4503152</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12167,7 +12153,7 @@
         <v>6992859.4503152</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12200,7 +12186,7 @@
         <v>7092959.4503152</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12233,7 +12219,7 @@
         <v>7092948.4503152</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12266,7 +12252,7 @@
         <v>7106946.4304152</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12299,7 +12285,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12332,7 +12318,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12365,7 +12351,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12398,7 +12384,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12431,7 +12417,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12464,7 +12450,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12497,7 +12483,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12530,7 +12516,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12563,7 +12549,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12596,7 +12582,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12629,7 +12615,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12662,7 +12648,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12695,7 +12681,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12728,7 +12714,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12761,7 +12747,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12794,7 +12780,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12860,7 +12846,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12926,7 +12912,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12992,7 +12978,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13025,7 +13011,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13124,7 +13110,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13190,7 +13176,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13256,7 +13242,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13355,7 +13341,7 @@
         <v>7008168.099162511</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13487,7 +13473,7 @@
         <v>7021314.325962511</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13520,7 +13506,7 @@
         <v>6949177.417562511</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13553,7 +13539,7 @@
         <v>6954582.82296251</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13619,7 +13605,7 @@
         <v>6790533.35306251</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13652,7 +13638,7 @@
         <v>6798533.35306251</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13685,7 +13671,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13718,7 +13704,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13751,7 +13737,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13784,7 +13770,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13817,7 +13803,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14180,7 +14166,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14246,7 +14232,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14279,7 +14265,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14345,7 +14331,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14378,7 +14364,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14444,7 +14430,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14477,7 +14463,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14510,7 +14496,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14543,7 +14529,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14576,7 +14562,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14609,7 +14595,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14642,7 +14628,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14675,7 +14661,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14741,7 +14727,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14774,7 +14760,7 @@
         <v>6609954.826435482</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14807,7 +14793,7 @@
         <v>6609954.826435482</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14840,7 +14826,7 @@
         <v>6422006.452035482</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14873,7 +14859,7 @@
         <v>6425652.103735482</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15104,7 +15090,7 @@
         <v>6425652.103735482</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15137,7 +15123,7 @@
         <v>6428851.781135483</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15170,7 +15156,7 @@
         <v>6424326.035235482</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15203,7 +15189,7 @@
         <v>6424336.035235482</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15368,7 +15354,7 @@
         <v>6414752.066955912</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15434,7 +15420,7 @@
         <v>5259584.486855912</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15467,7 +15453,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15500,7 +15486,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15533,7 +15519,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15566,7 +15552,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15599,7 +15585,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15632,7 +15618,7 @@
         <v>5152175.673655912</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15665,7 +15651,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15698,7 +15684,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15731,7 +15717,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15764,7 +15750,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15797,7 +15783,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15830,7 +15816,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15863,7 +15849,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15896,7 +15882,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15929,7 +15915,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15962,7 +15948,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15995,7 +15981,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16028,7 +16014,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16061,7 +16047,7 @@
         <v>5162133.468455912</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16094,7 +16080,7 @@
         <v>5162133.468455912</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16193,7 +16179,7 @@
         <v>5191657.846055912</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16259,7 +16245,7 @@
         <v>5191657.846055912</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16688,7 +16674,7 @@
         <v>5682862.543555912</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16721,7 +16707,7 @@
         <v>5682862.543555912</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16754,7 +16740,7 @@
         <v>5682862.543555912</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16787,7 +16773,7 @@
         <v>5817334.435955912</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16820,7 +16806,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16853,7 +16839,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16886,7 +16872,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16919,7 +16905,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16952,7 +16938,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16985,7 +16971,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17051,7 +17037,7 @@
         <v>5820712.579538791</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17084,7 +17070,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17117,7 +17103,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17150,7 +17136,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17183,7 +17169,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17216,7 +17202,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17249,7 +17235,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17282,7 +17268,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17414,7 +17400,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17689,6 +17675,6 @@
       <c r="M523" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest TRX.xlsx
+++ b/BackTest/2019-10-19 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>17.9</v>
       </c>
@@ -562,11 +560,9 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>17.9</v>
       </c>
@@ -1395,7 +1391,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1428,7 +1424,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1461,7 +1457,7 @@
         <v>2232657.44805249</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1494,7 +1490,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1527,7 +1523,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1560,7 +1556,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1593,7 +1589,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1626,7 +1622,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1659,7 +1655,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2220,7 +2216,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2253,7 +2249,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2319,7 +2315,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2352,7 +2348,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2385,7 +2381,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2418,7 +2414,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2451,7 +2447,7 @@
         <v>2213652.627624071</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2484,7 +2480,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2517,7 +2513,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2550,7 +2546,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2583,7 +2579,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2616,7 +2612,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2682,7 +2678,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2715,7 +2711,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -10701,7 +10697,7 @@
         <v>7374103.063610251</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10734,7 +10730,7 @@
         <v>7374113.063610251</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10833,7 +10829,7 @@
         <v>7242731.458510251</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10866,7 +10862,7 @@
         <v>7244792.759510251</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10899,7 +10895,7 @@
         <v>7244632.59741025</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10932,7 +10928,7 @@
         <v>7244732.59741025</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10965,7 +10961,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10998,7 +10994,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11031,7 +11027,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11064,7 +11060,7 @@
         <v>7144732.59741025</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11097,7 +11093,7 @@
         <v>7081237.79701025</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11130,7 +11126,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11163,7 +11159,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11196,7 +11192,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11229,7 +11225,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11262,7 +11258,7 @@
         <v>7081348.77527111</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11295,7 +11291,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12252,7 +12248,7 @@
         <v>7106946.4304152</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12351,7 +12347,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12384,7 +12380,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12417,7 +12413,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12450,7 +12446,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12483,7 +12479,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12516,7 +12512,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12549,7 +12545,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12582,7 +12578,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12615,7 +12611,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12648,7 +12644,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12681,7 +12677,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12714,7 +12710,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12747,7 +12743,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12780,7 +12776,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13011,7 +13007,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13176,7 +13172,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13242,7 +13238,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13341,7 +13337,7 @@
         <v>7008168.099162511</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13539,7 +13535,7 @@
         <v>6954582.82296251</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13605,7 +13601,7 @@
         <v>6790533.35306251</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13638,7 +13634,7 @@
         <v>6798533.35306251</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13671,7 +13667,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13704,7 +13700,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13737,7 +13733,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13770,7 +13766,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13803,7 +13799,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14166,7 +14162,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14232,7 +14228,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14265,7 +14261,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14331,7 +14327,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14364,7 +14360,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14430,7 +14426,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14463,7 +14459,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14496,7 +14492,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14529,7 +14525,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14562,7 +14558,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14595,7 +14591,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14628,7 +14624,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14661,7 +14657,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14727,7 +14723,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14760,7 +14756,7 @@
         <v>6609954.826435482</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14793,7 +14789,7 @@
         <v>6609954.826435482</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14826,7 +14822,7 @@
         <v>6422006.452035482</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14859,7 +14855,7 @@
         <v>6425652.103735482</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15090,7 +15086,7 @@
         <v>6425652.103735482</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15123,7 +15119,7 @@
         <v>6428851.781135483</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15156,7 +15152,7 @@
         <v>6424326.035235482</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15189,7 +15185,7 @@
         <v>6424336.035235482</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15354,7 +15350,7 @@
         <v>6414752.066955912</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15453,7 +15449,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15486,7 +15482,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15519,7 +15515,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15552,7 +15548,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15585,7 +15581,7 @@
         <v>5152165.673655912</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15618,7 +15614,7 @@
         <v>5152175.673655912</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15651,7 +15647,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15684,7 +15680,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15717,7 +15713,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15750,7 +15746,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15783,7 +15779,7 @@
         <v>5133137.893155912</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15816,7 +15812,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15849,7 +15845,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15882,7 +15878,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15915,7 +15911,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15948,7 +15944,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15981,7 +15977,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16014,7 +16010,7 @@
         <v>5332853.893155912</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16047,7 +16043,7 @@
         <v>5162133.468455912</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16080,7 +16076,7 @@
         <v>5162133.468455912</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16707,7 +16703,7 @@
         <v>5682862.543555912</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16740,7 +16736,7 @@
         <v>5682862.543555912</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16773,7 +16769,7 @@
         <v>5817334.435955912</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16806,7 +16802,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16839,7 +16835,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16872,7 +16868,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16905,7 +16901,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16938,7 +16934,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16971,7 +16967,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17037,7 +17033,7 @@
         <v>5820712.579538791</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17070,7 +17066,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17103,7 +17099,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17136,7 +17132,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17169,7 +17165,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17202,7 +17198,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17235,7 +17231,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17268,7 +17264,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17400,7 +17396,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17675,6 +17671,6 @@
       <c r="M523" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest TRX.xlsx
+++ b/BackTest/2019-10-19 BackTest TRX.xlsx
@@ -521,9 +521,11 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J4" t="n">
         <v>17.9</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J5" t="n">
         <v>17.9</v>
       </c>
@@ -599,10 +603,14 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,11 +640,19 @@
         <v>417024.49285249</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -668,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1391,7 +1413,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1424,7 +1446,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1457,7 +1479,7 @@
         <v>2232657.44805249</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1490,7 +1512,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1545,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1578,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1611,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1622,7 +1644,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1677,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2216,7 +2238,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2249,7 +2271,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2315,7 +2337,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2370,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2381,7 +2403,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2414,7 +2436,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2469,7 @@
         <v>2213652.627624071</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2502,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2535,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2568,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2601,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2634,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2678,7 +2700,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2733,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -12545,7 +12567,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12809,7 +12831,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12842,7 +12864,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12875,7 +12897,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12908,7 +12930,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12941,7 +12963,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12974,7 +12996,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -17066,7 +17088,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17165,7 +17187,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17198,7 +17220,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17231,7 +17253,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17264,7 +17286,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17297,7 +17319,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17330,7 +17352,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17363,7 +17385,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17396,7 +17418,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17429,7 +17451,7 @@
         <v>5691834.04791045</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17462,7 +17484,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17495,7 +17517,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17528,7 +17550,7 @@
         <v>5654472.55821045</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17561,7 +17583,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17594,7 +17616,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
